--- a/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>47,35%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 59,02</t>
+          <t>38,48; 50,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,03; 53,54</t>
+          <t>43,77; 55,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,99; 55,31</t>
+          <t>42,95; 51,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>53,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>51,57%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,48; 50,69</t>
+          <t>48,85; 59,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,77; 55,94</t>
+          <t>44,03; 53,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,95; 51,54</t>
+          <t>47,99; 55,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,21; 54,7</t>
+          <t>34,87; 57,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,38; 56,88</t>
+          <t>43,48; 65,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,76; 52,7</t>
+          <t>42,63; 58,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>47,21%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,48; 50,69</t>
+          <t>40,62; 52,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,77; 55,94</t>
+          <t>41,55; 54,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,95; 51,54</t>
+          <t>42,91; 51,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>51,47%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,85; 59,02</t>
+          <t>45,68; 58,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,03; 53,54</t>
+          <t>44,25; 57,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,99; 55,31</t>
+          <t>46,49; 55,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>50,05%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,84; 53,99</t>
+          <t>45,69; 58,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 52,76</t>
+          <t>42,04; 53,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,2; 52,06</t>
+          <t>46,03; 54,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50,32%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49,12%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46,73; 54,07</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45,86; 52,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 52,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,87; 57,96</t>
+          <t>34,48; 57,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,48; 65,28</t>
+          <t>43,87; 65,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,63; 58,23</t>
+          <t>42,53; 58,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,62; 52,57</t>
+          <t>40,5; 52,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,55; 54,35</t>
+          <t>41,35; 53,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,91; 51,48</t>
+          <t>42,99; 51,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,68; 58,3</t>
+          <t>45,41; 58,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,25; 57,2</t>
+          <t>44,25; 57,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,49; 55,81</t>
+          <t>46,98; 55,76</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,69; 58,41</t>
+          <t>46,18; 58,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,04; 53,45</t>
+          <t>42,06; 53,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,03; 54,21</t>
+          <t>45,95; 54,62</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,73; 54,07</t>
+          <t>46,83; 53,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,86; 52,66</t>
+          <t>45,64; 52,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,6</t>
+          <t>47,38; 52,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>49,88%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,48; 57,34</t>
+          <t>44,44; 65,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,87; 65,78</t>
+          <t>33,65; 56,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,53; 58,11</t>
+          <t>42,02; 58,4</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>47,76%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,5; 52,67</t>
+          <t>41,1; 54,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,35; 53,94</t>
+          <t>41,04; 53,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,99; 51,42</t>
+          <t>42,93; 52,61</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,74%</t>
+          <t>53,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,47%</t>
+          <t>52,14%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,41; 58,39</t>
+          <t>43,12; 57,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,25; 57,67</t>
+          <t>46,94; 59,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,98; 55,76</t>
+          <t>47,31; 56,92</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>50,71%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,18; 58,95</t>
+          <t>43,17; 54,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,06; 53,3</t>
+          <t>45,39; 59,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,95; 54,62</t>
+          <t>45,69; 56,02</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>49,64%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50,89%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>50,32%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>49,12%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>49,76%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,83; 53,97</t>
+          <t>45,94; 53,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,64; 52,24</t>
+          <t>47,13; 54,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,19</t>
+          <t>47,7; 52,83</t>
         </is>
       </c>
     </row>
